--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.94348104518564</v>
+        <v>4.081081666666667</v>
       </c>
       <c r="H2">
-        <v>1.94348104518564</v>
+        <v>12.243245</v>
       </c>
       <c r="I2">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="J2">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.543673551326876</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="N2">
-        <v>0.543673551326876</v>
+        <v>2.030039</v>
       </c>
       <c r="O2">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="P2">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="Q2">
-        <v>1.056619241772546</v>
+        <v>2.761584981839445</v>
       </c>
       <c r="R2">
-        <v>1.056619241772546</v>
+        <v>24.854264836555</v>
       </c>
       <c r="S2">
-        <v>0.0007123087539935134</v>
+        <v>0.001522139468727177</v>
       </c>
       <c r="T2">
-        <v>0.0007123087539935134</v>
+        <v>0.001522139468727177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.94348104518564</v>
+        <v>4.081081666666667</v>
       </c>
       <c r="H3">
-        <v>1.94348104518564</v>
+        <v>12.243245</v>
       </c>
       <c r="I3">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="J3">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.5263539907513</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N3">
-        <v>45.5263539907513</v>
+        <v>137.100929</v>
       </c>
       <c r="O3">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="P3">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="Q3">
-        <v>88.47960603743677</v>
+        <v>186.5066959416228</v>
       </c>
       <c r="R3">
-        <v>88.47960603743677</v>
+        <v>1678.560263474605</v>
       </c>
       <c r="S3">
-        <v>0.05964759625675133</v>
+        <v>0.1027993724406587</v>
       </c>
       <c r="T3">
-        <v>0.05964759625675133</v>
+        <v>0.1027993724406587</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.94348104518564</v>
+        <v>4.081081666666667</v>
       </c>
       <c r="H4">
-        <v>1.94348104518564</v>
+        <v>12.243245</v>
       </c>
       <c r="I4">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="J4">
-        <v>0.08927059584929939</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>22.0662428636297</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N4">
-        <v>22.0662428636297</v>
+        <v>0.439328</v>
       </c>
       <c r="O4">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="P4">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="Q4">
-        <v>42.88532474392722</v>
+        <v>0.5976444821511111</v>
       </c>
       <c r="R4">
-        <v>42.88532474392722</v>
+        <v>5.37880033936</v>
       </c>
       <c r="S4">
-        <v>0.02891069083855454</v>
+        <v>0.0003294116460407772</v>
       </c>
       <c r="T4">
-        <v>0.02891069083855454</v>
+        <v>0.0003294116460407772</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.63350239745707</v>
+        <v>4.081081666666667</v>
       </c>
       <c r="H5">
-        <v>3.63350239745707</v>
+        <v>12.243245</v>
       </c>
       <c r="I5">
-        <v>0.1668989388110381</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="J5">
-        <v>0.1668989388110381</v>
+        <v>0.1646100170538642</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.543673551326876</v>
+        <v>26.65531</v>
       </c>
       <c r="N5">
-        <v>0.543673551326876</v>
+        <v>79.96593</v>
       </c>
       <c r="O5">
-        <v>0.007979209136186176</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="P5">
-        <v>0.007979209136186176</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="Q5">
-        <v>1.975439152180203</v>
+        <v>108.7824969603167</v>
       </c>
       <c r="R5">
-        <v>1.975439152180203</v>
+        <v>979.04247264285</v>
       </c>
       <c r="S5">
-        <v>0.001331721537380813</v>
+        <v>0.05995909349843754</v>
       </c>
       <c r="T5">
-        <v>0.001331721537380813</v>
+        <v>0.05995909349843754</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.63350239745707</v>
+        <v>3.762102333333333</v>
       </c>
       <c r="H6">
-        <v>3.63350239745707</v>
+        <v>11.286307</v>
       </c>
       <c r="I6">
-        <v>0.1668989388110381</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="J6">
-        <v>0.1668989388110381</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.5263539907513</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="N6">
-        <v>45.5263539907513</v>
+        <v>2.030039</v>
       </c>
       <c r="O6">
-        <v>0.6681662163143214</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="P6">
-        <v>0.6681662163143214</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="Q6">
-        <v>165.4201163728741</v>
+        <v>2.545738152885889</v>
       </c>
       <c r="R6">
-        <v>165.4201163728741</v>
+        <v>22.911643375973</v>
       </c>
       <c r="S6">
-        <v>0.1115162324522468</v>
+        <v>0.00140316830553271</v>
       </c>
       <c r="T6">
-        <v>0.1115162324522468</v>
+        <v>0.00140316830553271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.63350239745707</v>
+        <v>3.762102333333333</v>
       </c>
       <c r="H7">
-        <v>3.63350239745707</v>
+        <v>11.286307</v>
       </c>
       <c r="I7">
-        <v>0.1668989388110381</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="J7">
-        <v>0.1668989388110381</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.0662428636297</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N7">
-        <v>22.0662428636297</v>
+        <v>137.100929</v>
       </c>
       <c r="O7">
-        <v>0.3238545745494925</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="P7">
-        <v>0.3238545745494925</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="Q7">
-        <v>80.17774634786848</v>
+        <v>171.9292416310226</v>
       </c>
       <c r="R7">
-        <v>80.17774634786848</v>
+        <v>1547.363174679203</v>
       </c>
       <c r="S7">
-        <v>0.05405098482141053</v>
+        <v>0.09476452335737902</v>
       </c>
       <c r="T7">
-        <v>0.05405098482141053</v>
+        <v>0.09476452335737902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.64736032483152</v>
+        <v>3.762102333333333</v>
       </c>
       <c r="H8">
-        <v>2.64736032483152</v>
+        <v>11.286307</v>
       </c>
       <c r="I8">
-        <v>0.1216021294423946</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="J8">
-        <v>0.1216021294423946</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.543673551326876</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N8">
-        <v>0.543673551326876</v>
+        <v>0.439328</v>
       </c>
       <c r="O8">
-        <v>0.007979209136186176</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="P8">
-        <v>0.007979209136186176</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="Q8">
-        <v>1.439299789443024</v>
+        <v>0.5509322979662222</v>
       </c>
       <c r="R8">
-        <v>1.439299789443024</v>
+        <v>4.958390681696001</v>
       </c>
       <c r="S8">
-        <v>0.0009702888222264492</v>
+        <v>0.0003036646711383744</v>
       </c>
       <c r="T8">
-        <v>0.0009702888222264492</v>
+        <v>0.0003036646711383744</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.64736032483152</v>
+        <v>3.762102333333333</v>
       </c>
       <c r="H9">
-        <v>2.64736032483152</v>
+        <v>11.286307</v>
       </c>
       <c r="I9">
-        <v>0.1216021294423946</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="J9">
-        <v>0.1216021294423946</v>
+        <v>0.1517440178437291</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.5263539907513</v>
+        <v>26.65531</v>
       </c>
       <c r="N9">
-        <v>45.5263539907513</v>
+        <v>79.96593</v>
       </c>
       <c r="O9">
-        <v>0.6681662163143214</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="P9">
-        <v>0.6681662163143214</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="Q9">
-        <v>120.5246632893501</v>
+        <v>100.2800039467233</v>
       </c>
       <c r="R9">
-        <v>120.5246632893501</v>
+        <v>902.5200355205101</v>
       </c>
       <c r="S9">
-        <v>0.08125043472528916</v>
+        <v>0.05527266150967902</v>
       </c>
       <c r="T9">
-        <v>0.08125043472528916</v>
+        <v>0.05527266150967902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.64736032483152</v>
+        <v>2.946064666666667</v>
       </c>
       <c r="H10">
-        <v>2.64736032483152</v>
+        <v>8.838194</v>
       </c>
       <c r="I10">
-        <v>0.1216021294423946</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="J10">
-        <v>0.1216021294423946</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.0662428636297</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="N10">
-        <v>22.0662428636297</v>
+        <v>2.030039</v>
       </c>
       <c r="O10">
-        <v>0.3238545745494925</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="P10">
-        <v>0.3238545745494925</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="Q10">
-        <v>58.41729587526993</v>
+        <v>1.993542056618444</v>
       </c>
       <c r="R10">
-        <v>58.41729587526993</v>
+        <v>17.941878509566</v>
       </c>
       <c r="S10">
-        <v>0.03938140589487903</v>
+        <v>0.001098807049901209</v>
       </c>
       <c r="T10">
-        <v>0.03938140589487903</v>
+        <v>0.001098807049901209</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,122 +1092,122 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.66440951391284</v>
+        <v>2.946064666666667</v>
       </c>
       <c r="H11">
-        <v>2.66440951391284</v>
+        <v>8.838194</v>
       </c>
       <c r="I11">
-        <v>0.1223852558185469</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="J11">
-        <v>0.1223852558185469</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.543673551326876</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N11">
-        <v>0.543673551326876</v>
+        <v>137.100929</v>
       </c>
       <c r="O11">
-        <v>0.007979209136186176</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="P11">
-        <v>0.007979209136186176</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="Q11">
-        <v>1.448568982618109</v>
+        <v>134.6360675646918</v>
       </c>
       <c r="R11">
-        <v>1.448568982618109</v>
+        <v>1211.724608082226</v>
       </c>
       <c r="S11">
-        <v>0.0009765375513618315</v>
+        <v>0.07420914934797068</v>
       </c>
       <c r="T11">
-        <v>0.0009765375513618315</v>
+        <v>0.0742091493479707</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.66440951391284</v>
+        <v>2.946064666666667</v>
       </c>
       <c r="H12">
-        <v>2.66440951391284</v>
+        <v>8.838194</v>
       </c>
       <c r="I12">
-        <v>0.1223852558185469</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="J12">
-        <v>0.1223852558185469</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>45.5263539907513</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N12">
-        <v>45.5263539907513</v>
+        <v>0.439328</v>
       </c>
       <c r="O12">
-        <v>0.6681662163143214</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="P12">
-        <v>0.6681662163143214</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="Q12">
-        <v>121.3008507067216</v>
+        <v>0.4314295659591111</v>
       </c>
       <c r="R12">
-        <v>121.3008507067216</v>
+        <v>3.882866093632</v>
       </c>
       <c r="S12">
-        <v>0.08177369331293874</v>
+        <v>0.0002377967633227727</v>
       </c>
       <c r="T12">
-        <v>0.08177369331293874</v>
+        <v>0.0002377967633227727</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.66440951391284</v>
+        <v>2.946064666666667</v>
       </c>
       <c r="H13">
-        <v>2.66440951391284</v>
+        <v>8.838194</v>
       </c>
       <c r="I13">
-        <v>0.1223852558185469</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="J13">
-        <v>0.1223852558185469</v>
+        <v>0.1188292209349205</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.0662428636297</v>
+        <v>26.65531</v>
       </c>
       <c r="N13">
-        <v>22.0662428636297</v>
+        <v>79.96593</v>
       </c>
       <c r="O13">
-        <v>0.3238545745494925</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="P13">
-        <v>0.3238545745494925</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="Q13">
-        <v>58.79350742216628</v>
+        <v>78.52826697004666</v>
       </c>
       <c r="R13">
-        <v>58.79350742216628</v>
+        <v>706.75440273042</v>
       </c>
       <c r="S13">
-        <v>0.0396350249542463</v>
+        <v>0.0432834677737258</v>
       </c>
       <c r="T13">
-        <v>0.0396350249542463</v>
+        <v>0.04328346777372581</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.11376196773769</v>
+        <v>2.855569666666666</v>
       </c>
       <c r="H14">
-        <v>7.11376196773769</v>
+        <v>8.566708999999999</v>
       </c>
       <c r="I14">
-        <v>0.3267589211446972</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="J14">
-        <v>0.3267589211446972</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.543673551326876</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="N14">
-        <v>0.543673551326876</v>
+        <v>2.030039</v>
       </c>
       <c r="O14">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="P14">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="Q14">
-        <v>3.867564232294015</v>
+        <v>1.932305930183444</v>
       </c>
       <c r="R14">
-        <v>3.867564232294015</v>
+        <v>17.390753371651</v>
       </c>
       <c r="S14">
-        <v>0.002607277768928106</v>
+        <v>0.001065054720868554</v>
       </c>
       <c r="T14">
-        <v>0.002607277768928106</v>
+        <v>0.001065054720868555</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.11376196773769</v>
+        <v>2.855569666666666</v>
       </c>
       <c r="H15">
-        <v>7.11376196773769</v>
+        <v>8.566708999999999</v>
       </c>
       <c r="I15">
-        <v>0.3267589211446972</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="J15">
-        <v>0.3267589211446972</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.5263539907513</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N15">
-        <v>45.5263539907513</v>
+        <v>137.100929</v>
       </c>
       <c r="O15">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="P15">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="Q15">
-        <v>323.8636455491696</v>
+        <v>130.5004180414068</v>
       </c>
       <c r="R15">
-        <v>323.8636455491696</v>
+        <v>1174.503762372661</v>
       </c>
       <c r="S15">
-        <v>0.218329271988202</v>
+        <v>0.07192964847813983</v>
       </c>
       <c r="T15">
-        <v>0.218329271988202</v>
+        <v>0.07192964847813985</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.11376196773769</v>
+        <v>2.855569666666666</v>
       </c>
       <c r="H16">
-        <v>7.11376196773769</v>
+        <v>8.566708999999999</v>
       </c>
       <c r="I16">
-        <v>0.3267589211446972</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="J16">
-        <v>0.3267589211446972</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>22.0662428636297</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N16">
-        <v>22.0662428636297</v>
+        <v>0.439328</v>
       </c>
       <c r="O16">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="P16">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="Q16">
-        <v>156.9739992541522</v>
+        <v>0.4181772368391111</v>
       </c>
       <c r="R16">
-        <v>156.9739992541522</v>
+        <v>3.763595131552</v>
       </c>
       <c r="S16">
-        <v>0.1058223713875671</v>
+        <v>0.0002304923010886689</v>
       </c>
       <c r="T16">
-        <v>0.1058223713875671</v>
+        <v>0.0002304923010886689</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.76815880873068</v>
+        <v>2.855569666666666</v>
       </c>
       <c r="H17">
-        <v>3.76815880873068</v>
+        <v>8.566708999999999</v>
       </c>
       <c r="I17">
-        <v>0.1730841589340238</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="J17">
-        <v>0.1730841589340238</v>
+        <v>0.115179114245079</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.543673551326876</v>
+        <v>26.65531</v>
       </c>
       <c r="N17">
-        <v>0.543673551326876</v>
+        <v>79.96593</v>
       </c>
       <c r="O17">
-        <v>0.007979209136186176</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="P17">
-        <v>0.007979209136186176</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="Q17">
-        <v>2.048648281506259</v>
+        <v>76.11609469159666</v>
       </c>
       <c r="R17">
-        <v>2.048648281506259</v>
+        <v>685.0448522243699</v>
       </c>
       <c r="S17">
-        <v>0.001381074702295463</v>
+        <v>0.04195391874498193</v>
       </c>
       <c r="T17">
-        <v>0.001381074702295463</v>
+        <v>0.04195391874498194</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.76815880873068</v>
+        <v>7.220197666666667</v>
       </c>
       <c r="H18">
-        <v>3.76815880873068</v>
+        <v>21.660593</v>
       </c>
       <c r="I18">
-        <v>0.1730841589340238</v>
+        <v>0.2912259440309176</v>
       </c>
       <c r="J18">
-        <v>0.1730841589340238</v>
+        <v>0.2912259440309176</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>45.5263539907513</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="N18">
-        <v>45.5263539907513</v>
+        <v>2.030039</v>
       </c>
       <c r="O18">
-        <v>0.6681662163143214</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="P18">
-        <v>0.6681662163143214</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="Q18">
-        <v>171.5505318196407</v>
+        <v>4.885760950347445</v>
       </c>
       <c r="R18">
-        <v>171.5505318196407</v>
+        <v>43.971848553127</v>
       </c>
       <c r="S18">
-        <v>0.1156489875788933</v>
+        <v>0.002692949746683629</v>
       </c>
       <c r="T18">
-        <v>0.1156489875788933</v>
+        <v>0.002692949746683629</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.220197666666667</v>
+      </c>
+      <c r="H19">
+        <v>21.660593</v>
+      </c>
+      <c r="I19">
+        <v>0.2912259440309176</v>
+      </c>
+      <c r="J19">
+        <v>0.2912259440309176</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>45.70030966666667</v>
+      </c>
+      <c r="N19">
+        <v>137.100929</v>
+      </c>
+      <c r="O19">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="P19">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="Q19">
+        <v>329.9652692212108</v>
+      </c>
+      <c r="R19">
+        <v>2969.687422990897</v>
+      </c>
+      <c r="S19">
+        <v>0.1818713394277845</v>
+      </c>
+      <c r="T19">
+        <v>0.1818713394277845</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.220197666666667</v>
+      </c>
+      <c r="H20">
+        <v>21.660593</v>
+      </c>
+      <c r="I20">
+        <v>0.2912259440309176</v>
+      </c>
+      <c r="J20">
+        <v>0.2912259440309176</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1464426666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.439328</v>
+      </c>
+      <c r="O20">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="P20">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="Q20">
+        <v>1.057345000167111</v>
+      </c>
+      <c r="R20">
+        <v>9.516105001504</v>
+      </c>
+      <c r="S20">
+        <v>0.0005827908854514743</v>
+      </c>
+      <c r="T20">
+        <v>0.0005827908854514743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.220197666666667</v>
+      </c>
+      <c r="H21">
+        <v>21.660593</v>
+      </c>
+      <c r="I21">
+        <v>0.2912259440309176</v>
+      </c>
+      <c r="J21">
+        <v>0.2912259440309176</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.65531</v>
+      </c>
+      <c r="N21">
+        <v>79.96593</v>
+      </c>
+      <c r="O21">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="P21">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="Q21">
+        <v>192.4566070662767</v>
+      </c>
+      <c r="R21">
+        <v>1732.10946359649</v>
+      </c>
+      <c r="S21">
+        <v>0.106078863970998</v>
+      </c>
+      <c r="T21">
+        <v>0.106078863970998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>3.76815880873068</v>
-      </c>
-      <c r="H19">
-        <v>3.76815880873068</v>
-      </c>
-      <c r="I19">
-        <v>0.1730841589340238</v>
-      </c>
-      <c r="J19">
-        <v>0.1730841589340238</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>22.0662428636297</v>
-      </c>
-      <c r="N19">
-        <v>22.0662428636297</v>
-      </c>
-      <c r="O19">
-        <v>0.3238545745494925</v>
-      </c>
-      <c r="P19">
-        <v>0.3238545745494925</v>
-      </c>
-      <c r="Q19">
-        <v>83.14910742217675</v>
-      </c>
-      <c r="R19">
-        <v>83.14910742217675</v>
-      </c>
-      <c r="S19">
-        <v>0.05605409665283502</v>
-      </c>
-      <c r="T19">
-        <v>0.05605409665283502</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.92741</v>
+      </c>
+      <c r="H22">
+        <v>11.78223</v>
+      </c>
+      <c r="I22">
+        <v>0.1584116858914896</v>
+      </c>
+      <c r="J22">
+        <v>0.1584116858914896</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.6766796666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.030039</v>
+      </c>
+      <c r="O22">
+        <v>0.009246943144590633</v>
+      </c>
+      <c r="P22">
+        <v>0.009246943144590633</v>
+      </c>
+      <c r="Q22">
+        <v>2.657598489663333</v>
+      </c>
+      <c r="R22">
+        <v>23.91838640697</v>
+      </c>
+      <c r="S22">
+        <v>0.001464823852877355</v>
+      </c>
+      <c r="T22">
+        <v>0.001464823852877355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.92741</v>
+      </c>
+      <c r="H23">
+        <v>11.78223</v>
+      </c>
+      <c r="I23">
+        <v>0.1584116858914896</v>
+      </c>
+      <c r="J23">
+        <v>0.1584116858914896</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>45.70030966666667</v>
+      </c>
+      <c r="N23">
+        <v>137.100929</v>
+      </c>
+      <c r="O23">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="P23">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="Q23">
+        <v>179.4838531879633</v>
+      </c>
+      <c r="R23">
+        <v>1615.35467869167</v>
+      </c>
+      <c r="S23">
+        <v>0.09892849893565819</v>
+      </c>
+      <c r="T23">
+        <v>0.09892849893565819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.92741</v>
+      </c>
+      <c r="H24">
+        <v>11.78223</v>
+      </c>
+      <c r="I24">
+        <v>0.1584116858914896</v>
+      </c>
+      <c r="J24">
+        <v>0.1584116858914896</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1464426666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.439328</v>
+      </c>
+      <c r="O24">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="P24">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="Q24">
+        <v>0.5751403934933332</v>
+      </c>
+      <c r="R24">
+        <v>5.176263541439999</v>
+      </c>
+      <c r="S24">
+        <v>0.0003170077686374017</v>
+      </c>
+      <c r="T24">
+        <v>0.0003170077686374017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.92741</v>
+      </c>
+      <c r="H25">
+        <v>11.78223</v>
+      </c>
+      <c r="I25">
+        <v>0.1584116858914896</v>
+      </c>
+      <c r="J25">
+        <v>0.1584116858914896</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>26.65531</v>
+      </c>
+      <c r="N25">
+        <v>79.96593</v>
+      </c>
+      <c r="O25">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="P25">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="Q25">
+        <v>104.6863310471</v>
+      </c>
+      <c r="R25">
+        <v>942.1769794238999</v>
+      </c>
+      <c r="S25">
+        <v>0.05770135533431665</v>
+      </c>
+      <c r="T25">
+        <v>0.05770135533431665</v>
       </c>
     </row>
   </sheetData>
